--- a/User Data and Results/VREye HMD data.xlsx
+++ b/User Data and Results/VREye HMD data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B650A43-91F0-4F75-98FD-11EBBEB196EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\assignment-0-Pawankumar2925\Custom-HMD-Resources\User Data and Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17E32E-5AEA-487C-803F-A839CA690853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visual Acuity" sheetId="1" r:id="rId1"/>
@@ -14,24 +19,13 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="3015" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -354,9 +348,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Annapoorna mam</t>
-  </si>
-  <si>
     <t>Count of Field1</t>
   </si>
   <si>
@@ -367,13 +358,106 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +502,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,16 +1169,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5123,7 +5207,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83F5B68F-842C-4DE3-AD57-7B77F142C4B7}" name="PivotTable1" cacheId="3015" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83F5B68F-842C-4DE3-AD57-7B77F142C4B7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -5545,23 +5629,23 @@
       <selection activeCell="A42" sqref="A42:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="19" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25">
+    <row r="1" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="18.75">
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -5703,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18.75">
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5774,7 +5858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18.75">
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
@@ -5845,7 +5929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18.75">
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>18</v>
       </c>
@@ -5916,7 +6000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18.75">
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
@@ -5987,7 +6071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18.75">
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>25</v>
       </c>
@@ -6058,7 +6142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18.75">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>26</v>
       </c>
@@ -6129,7 +6213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18.75">
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>27</v>
       </c>
@@ -6200,7 +6284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18.75">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>31</v>
       </c>
@@ -6271,7 +6355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18.75">
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
         <v>32</v>
       </c>
@@ -6342,7 +6426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18.75">
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>37</v>
       </c>
@@ -6403,7 +6487,7 @@
       <c r="T12" s="25">
         <v>11</v>
       </c>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="69" t="s">
         <v>13</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6413,7 +6497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18.75">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
         <v>38</v>
       </c>
@@ -6484,7 +6568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18.75">
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
         <v>41</v>
       </c>
@@ -6555,7 +6639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18.75">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
         <v>42</v>
       </c>
@@ -6626,7 +6710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18.75">
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>43</v>
       </c>
@@ -6697,7 +6781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18.75">
+    <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>45</v>
       </c>
@@ -6768,7 +6852,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="18.75">
+    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
         <v>48</v>
       </c>
@@ -6839,7 +6923,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18.75">
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
         <v>51</v>
       </c>
@@ -6910,7 +6994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18.75">
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
         <v>53</v>
       </c>
@@ -6981,7 +7065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18.75">
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
         <v>54</v>
       </c>
@@ -7052,7 +7136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="18.75">
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
         <v>56</v>
       </c>
@@ -7123,7 +7207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18.75">
+    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>57</v>
       </c>
@@ -7194,7 +7278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18.75">
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>58</v>
       </c>
@@ -7265,7 +7349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18.75">
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>61</v>
       </c>
@@ -7336,7 +7420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18.75">
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
         <v>62</v>
       </c>
@@ -7407,7 +7491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="18.75">
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
         <v>64</v>
       </c>
@@ -7478,7 +7562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18.75">
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>66</v>
       </c>
@@ -7549,7 +7633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="18.75">
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>67</v>
       </c>
@@ -7620,7 +7704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="18.75">
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>68</v>
       </c>
@@ -7691,7 +7775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="18.75">
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
         <v>69</v>
       </c>
@@ -7762,7 +7846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18.75">
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
         <v>70</v>
       </c>
@@ -7833,7 +7917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="18.75">
+    <row r="33" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
         <v>71</v>
       </c>
@@ -7864,7 +7948,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="53"/>
     </row>
-    <row r="34" spans="1:23" ht="18.75">
+    <row r="34" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>72</v>
       </c>
@@ -7895,7 +7979,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="53"/>
     </row>
-    <row r="35" spans="1:23" ht="18.75">
+    <row r="35" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
         <v>73</v>
       </c>
@@ -7926,7 +8010,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="53"/>
     </row>
-    <row r="36" spans="1:23" ht="18.75">
+    <row r="36" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>74</v>
       </c>
@@ -7957,7 +8041,7 @@
       <c r="V36" s="4"/>
       <c r="W36" s="53"/>
     </row>
-    <row r="37" spans="1:23" ht="18.75">
+    <row r="37" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>75</v>
       </c>
@@ -7988,7 +8072,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="53"/>
     </row>
-    <row r="38" spans="1:23" ht="18.75">
+    <row r="38" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="54" t="s">
         <v>76</v>
       </c>
@@ -8019,14 +8103,14 @@
       <c r="V38" s="8"/>
       <c r="W38" s="58"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75">
-      <c r="A41" s="75" t="s">
+    <row r="41" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="75" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="49"/>
@@ -8046,14 +8130,14 @@
       <c r="R41" s="49"/>
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
-      <c r="U41" s="75" t="s">
+      <c r="U41" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="V41" s="77" t="s">
+      <c r="V41" s="75" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="46"/>
       <c r="B42" s="47"/>
       <c r="C42" s="48"/>
@@ -8064,7 +8148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
       <c r="B43" s="40"/>
       <c r="C43" s="41"/>
@@ -8075,7 +8159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
       <c r="C44" s="41"/>
@@ -8086,7 +8170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
       <c r="C45" s="41"/>
@@ -8097,7 +8181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>5</v>
       </c>
@@ -8114,7 +8198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <v>6</v>
       </c>
@@ -8131,7 +8215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <v>7</v>
       </c>
@@ -8148,7 +8232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <v>8</v>
       </c>
@@ -8165,7 +8249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <v>9</v>
       </c>
@@ -8182,7 +8266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
         <v>10</v>
       </c>
@@ -8199,7 +8283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>11</v>
       </c>
@@ -8216,7 +8300,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <v>12</v>
       </c>
@@ -8233,7 +8317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <v>13</v>
       </c>
@@ -8244,7 +8328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <v>14</v>
       </c>
@@ -8255,7 +8339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <v>15</v>
       </c>
@@ -8266,7 +8350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <v>16</v>
       </c>
@@ -8277,7 +8361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <v>17</v>
       </c>
@@ -8288,7 +8372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="43">
         <v>18</v>
       </c>
@@ -8309,17 +8393,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5C925D-246B-4CBD-ACC2-1F66EA5E3F0A}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -8333,9 +8417,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B2" s="63">
         <v>23</v>
@@ -8347,487 +8431,464 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="66">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="65">
         <v>26</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="66">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="65">
         <v>26</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="67">
+        <v>28</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="65">
+        <v>23</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="65">
+        <v>23</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="65">
+        <v>23</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="67">
+        <v>24</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="65">
+        <v>23</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="67">
+        <v>23</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="65">
+        <v>25</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="65">
+        <v>25</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="67">
+        <v>28</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="67">
+        <v>24</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="67">
+        <v>20</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="65">
+        <v>23</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="67">
+        <v>25</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="67">
+        <v>23</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="67">
+        <v>23</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="67">
+        <v>23</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="65">
+        <v>23</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="65">
+        <v>25</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="65">
+        <v>22</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="65">
+        <v>22</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="67">
+        <v>22</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="65">
+        <v>23</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="65">
+        <v>19</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="67">
         <v>18</v>
       </c>
-      <c r="B5" s="69">
-        <v>28</v>
-      </c>
-      <c r="C5" s="69" t="s">
+      <c r="C29" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D29" s="68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="66">
-        <v>23</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="67" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="67">
+        <v>20</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="66">
-        <v>23</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="67" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="65">
+        <v>18</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="66">
-        <v>23</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="67" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="65">
+        <v>18</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="69">
-        <v>24</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="66">
-        <v>23</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="69">
-        <v>23</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="66">
-        <v>25</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="66">
-        <v>25</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="69">
-        <v>28</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="69">
-        <v>24</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="69">
-        <v>20</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="66">
-        <v>23</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="69">
-        <v>25</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="69">
-        <v>23</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="69">
-        <v>23</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="69">
-        <v>23</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="66">
-        <v>23</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="66">
-        <v>25</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="66">
-        <v>22</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="66">
-        <v>22</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="69">
-        <v>22</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="66">
-        <v>23</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="66">
-        <v>19</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="69">
-        <v>18</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="69">
-        <v>20</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="66">
-        <v>18</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="66">
-        <v>18</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="67"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="67"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="70"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="67"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="67"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="62"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8838,25 +8899,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="74" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>110</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -8868,70 +8929,70 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="70">
         <v>6</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="71">
         <v>6</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="71">
         <v>1</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="72">
-        <v>7</v>
-      </c>
-      <c r="B5" s="73">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="70">
+        <v>7</v>
+      </c>
+      <c r="B5" s="71">
         <v>3</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="71">
         <v>6</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="72">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="70">
         <v>8</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="71">
         <v>1</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="71">
         <v>14</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="71">
         <v>1</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="71">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="73">
-        <v>10</v>
-      </c>
-      <c r="C7" s="73">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="71">
+        <v>10</v>
+      </c>
+      <c r="C7" s="71">
         <v>21</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="71">
         <v>1</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="71">
         <v>32</v>
       </c>
     </row>
